--- a/Metrics/Cache/Metrics.xlsx
+++ b/Metrics/Cache/Metrics.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,19 +509,292 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
+        <v>70</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>WESAD</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>26.43</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Fri Jun  7 09:33:14 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>700</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>70</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>WESAD</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>26.43</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Fri Jun  7 09:33:14 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>700</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>70</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>WESAD</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>26.43</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Fri Jun  7 09:33:14 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>700</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>70</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>WESAD</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>26.43</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Fri Jun  7 09:33:14 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>700</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>70</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>WESAD</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>26.43</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Fri Jun  7 09:33:14 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>WESAD</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
-        <v>36.59</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Fri Jun  7 06:51:44 2024</t>
+      <c r="B7" t="n">
+        <v>700</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>70</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>WESAD</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>26.43</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Fri Jun  7 09:33:14 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>700</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>70</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>WESAD</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>26.43</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Fri Jun  7 09:33:14 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>700</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>70</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>WESAD</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>26.43</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Fri Jun  7 09:33:14 2024</t>
         </is>
       </c>
     </row>
@@ -536,7 +809,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -615,16 +888,6 @@
           <t>Dataset used</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Total execution time (s)</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Current time</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -636,10 +899,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.7423292649815569</v>
+        <v>0.7942951015531661</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8383572663332231</v>
+        <v>0.8588373685934663</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -675,19 +938,11 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
           <t>WESAD</t>
-        </is>
-      </c>
-      <c r="P2" t="n">
-        <v>36.59</v>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Fri Jun  7 06:51:44 2024</t>
         </is>
       </c>
     </row>
@@ -701,10 +956,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.7205896283763426</v>
+        <v>0.7564120370370371</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8476689204233661</v>
+        <v>0.8859376395961761</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
@@ -728,19 +983,11 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
           <t>WESAD</t>
-        </is>
-      </c>
-      <c r="P3" t="n">
-        <v>36.59</v>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>Fri Jun  7 06:51:44 2024</t>
         </is>
       </c>
     </row>
@@ -754,10 +1001,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.7395133273291289</v>
+        <v>0.8083333333333335</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8523217437996901</v>
+        <v>0.8522171595342327</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -793,19 +1040,11 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
           <t>WESAD</t>
-        </is>
-      </c>
-      <c r="P4" t="n">
-        <v>36.59</v>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>Fri Jun  7 06:51:44 2024</t>
         </is>
       </c>
     </row>
@@ -819,10 +1058,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.6756167804064763</v>
+        <v>0.6916666666666667</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8416164172378575</v>
+        <v>0.7822210310015189</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -858,19 +1097,11 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
           <t>WESAD</t>
-        </is>
-      </c>
-      <c r="P5" t="n">
-        <v>36.59</v>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>Fri Jun  7 06:51:44 2024</t>
         </is>
       </c>
     </row>
@@ -884,10 +1115,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.7448944969299859</v>
+        <v>0.7928472222222223</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8506199096509318</v>
+        <v>0.8814467375442986</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
@@ -911,19 +1142,11 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
           <t>WESAD</t>
-        </is>
-      </c>
-      <c r="P6" t="n">
-        <v>36.59</v>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>Fri Jun  7 06:51:44 2024</t>
         </is>
       </c>
     </row>
@@ -937,10 +1160,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.7127257600515293</v>
+        <v>0.7701388888888889</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8473865606047841</v>
+        <v>0.879782006611275</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -976,19 +1199,11 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
           <t>WESAD</t>
-        </is>
-      </c>
-      <c r="P7" t="n">
-        <v>36.59</v>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>Fri Jun  7 06:51:44 2024</t>
         </is>
       </c>
     </row>
@@ -1002,10 +1217,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.7502564505150677</v>
+        <v>0.7690636200716845</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7509263181305778</v>
+        <v>0.7470085470085471</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -1041,19 +1256,11 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
           <t>WESAD</t>
-        </is>
-      </c>
-      <c r="P8" t="n">
-        <v>36.59</v>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>Fri Jun  7 06:51:44 2024</t>
         </is>
       </c>
     </row>
@@ -1067,10 +1274,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.7265608155128697</v>
+        <v>0.7689652671104285</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8326995908829186</v>
+        <v>0.841064355698502</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
@@ -1094,19 +1301,11 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
           <t>WESAD</t>
-        </is>
-      </c>
-      <c r="P9" t="n">
-        <v>36.59</v>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>Fri Jun  7 06:51:44 2024</t>
         </is>
       </c>
     </row>

--- a/Metrics/Cache/Metrics.xlsx
+++ b/Metrics/Cache/Metrics.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,366 +435,111 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>Sampling frequency</t>
         </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>ECG used</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>EMG used</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>EDA used</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>EEG used</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>RR used</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Timeframes length</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Dataset used</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Total execution time (s)</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Current time</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
       </c>
       <c r="B2" t="n">
         <v>700</v>
       </c>
-      <c r="C2" t="b">
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>ECG used</t>
+        </is>
+      </c>
+      <c r="B3" t="b">
         <v>1</v>
       </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>70</v>
-      </c>
-      <c r="I2" t="inlineStr">
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>EMG used</t>
+        </is>
+      </c>
+      <c r="B4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>EDA used</t>
+        </is>
+      </c>
+      <c r="B5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>EEG used</t>
+        </is>
+      </c>
+      <c r="B6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>RR used</t>
+        </is>
+      </c>
+      <c r="B7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Timeframes length</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Dataset used</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>WESAD</t>
         </is>
       </c>
-      <c r="J2" t="n">
-        <v>26.43</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Fri Jun  7 09:33:14 2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>700</v>
-      </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>70</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>WESAD</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
-        <v>26.43</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Fri Jun  7 09:33:14 2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>700</v>
-      </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>70</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>WESAD</t>
-        </is>
-      </c>
-      <c r="J4" t="n">
-        <v>26.43</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Fri Jun  7 09:33:14 2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>700</v>
-      </c>
-      <c r="C5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>70</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>WESAD</t>
-        </is>
-      </c>
-      <c r="J5" t="n">
-        <v>26.43</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Fri Jun  7 09:33:14 2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>700</v>
-      </c>
-      <c r="C6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>70</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>WESAD</t>
-        </is>
-      </c>
-      <c r="J6" t="n">
-        <v>26.43</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Fri Jun  7 09:33:14 2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>700</v>
-      </c>
-      <c r="C7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>70</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>WESAD</t>
-        </is>
-      </c>
-      <c r="J7" t="n">
-        <v>26.43</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Fri Jun  7 09:33:14 2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>700</v>
-      </c>
-      <c r="C8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>70</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>WESAD</t>
-        </is>
-      </c>
-      <c r="J8" t="n">
-        <v>26.43</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Fri Jun  7 09:33:14 2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>700</v>
-      </c>
-      <c r="C9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>70</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>WESAD</t>
-        </is>
-      </c>
-      <c r="J9" t="n">
-        <v>26.43</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Fri Jun  7 09:33:14 2024</t>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Total execution time (s)</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>41.79</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Current time</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Fri Jun  7 11:28:57 2024</t>
         </is>
       </c>
     </row>
@@ -809,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -835,57 +580,77 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Balanced_variance</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Regular_variance</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Most important feature</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Second most important feature</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Third most important feature</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Sampling frequency</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ECG used</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>EMG used</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>EDA used</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>EEG used</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>RR used</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Timeframes length</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Dataset used</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Total execution time (s)</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Current time</t>
         </is>
       </c>
     </row>
@@ -899,50 +664,64 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.7942951015531661</v>
+        <v>0.7408959596395041</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8588373685934663</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>HRV_Heart_rate1</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>HRV_Heart_rate2</t>
-        </is>
+        <v>0.8379509193005548</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.02996941992724151</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.01343877918715164</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>HRV_Heart_rate</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>HRV_MeanNN</t>
         </is>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>HRV_SDNN</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
         <v>700</v>
       </c>
-      <c r="I2" t="b">
+      <c r="K2" t="b">
         <v>1</v>
       </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" t="b">
-        <v>0</v>
-      </c>
       <c r="L2" t="b">
         <v>0</v>
       </c>
       <c r="M2" t="b">
         <v>0</v>
       </c>
-      <c r="N2" t="n">
-        <v>70</v>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="N2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>WESAD</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Fri Jun  7 11:21:49 2024</t>
         </is>
       </c>
     </row>
@@ -956,38 +735,52 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.7564120370370371</v>
+        <v>0.7186144390564465</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8859376395961761</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+        <v>0.848652259232523</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.03159358121405634</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.006989969054839516</v>
+      </c>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="n">
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="n">
         <v>700</v>
       </c>
-      <c r="I3" t="b">
+      <c r="K3" t="b">
         <v>1</v>
       </c>
-      <c r="J3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" t="b">
-        <v>0</v>
-      </c>
       <c r="L3" t="b">
         <v>0</v>
       </c>
       <c r="M3" t="b">
         <v>0</v>
       </c>
-      <c r="N3" t="n">
-        <v>70</v>
-      </c>
-      <c r="O3" t="inlineStr">
+      <c r="N3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="inlineStr">
         <is>
           <t>WESAD</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Fri Jun  7 11:21:49 2024</t>
         </is>
       </c>
     </row>
@@ -1001,50 +794,64 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.8083333333333335</v>
+        <v>0.7394392338068515</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8522171595342327</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>HRV_Heart_rate1</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>HRV_Heart_rate2</t>
-        </is>
+        <v>0.8536610240495434</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.03170704610765584</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.008511316904029519</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>HRV_Heart_rate</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>HRV_MeanNN</t>
         </is>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>HRV_SDNN</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
         <v>700</v>
       </c>
-      <c r="I4" t="b">
+      <c r="K4" t="b">
         <v>1</v>
       </c>
-      <c r="J4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" t="b">
-        <v>0</v>
-      </c>
       <c r="L4" t="b">
         <v>0</v>
       </c>
       <c r="M4" t="b">
         <v>0</v>
       </c>
-      <c r="N4" t="n">
-        <v>70</v>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="N4" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>WESAD</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Fri Jun  7 11:21:49 2024</t>
         </is>
       </c>
     </row>
@@ -1058,50 +865,64 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.6916666666666667</v>
+        <v>0.6756167804064763</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7822210310015189</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>HRV_Heart_rate1</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>HRV_Heart_rate2</t>
-        </is>
+        <v>0.8416164172378574</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.03234356808934915</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.006023501004513271</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>HRV_Heart_rate</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>HRV_MeanNN</t>
         </is>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>HRV_SDNN</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
         <v>700</v>
       </c>
-      <c r="I5" t="b">
+      <c r="K5" t="b">
         <v>1</v>
       </c>
-      <c r="J5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" t="b">
-        <v>0</v>
-      </c>
       <c r="L5" t="b">
         <v>0</v>
       </c>
       <c r="M5" t="b">
         <v>0</v>
       </c>
-      <c r="N5" t="n">
-        <v>70</v>
-      </c>
-      <c r="O5" t="inlineStr">
+      <c r="N5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>WESAD</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Fri Jun  7 11:21:49 2024</t>
         </is>
       </c>
     </row>
@@ -1115,38 +936,52 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.7928472222222223</v>
+        <v>0.7450352730365223</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8814467375442986</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+        <v>0.8523716831415099</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.03111203998331843</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.009464346768507877</v>
+      </c>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="n">
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
         <v>700</v>
       </c>
-      <c r="I6" t="b">
+      <c r="K6" t="b">
         <v>1</v>
       </c>
-      <c r="J6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" t="b">
-        <v>0</v>
-      </c>
       <c r="L6" t="b">
         <v>0</v>
       </c>
       <c r="M6" t="b">
         <v>0</v>
       </c>
-      <c r="N6" t="n">
-        <v>70</v>
-      </c>
-      <c r="O6" t="inlineStr">
+      <c r="N6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>WESAD</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Fri Jun  7 11:21:49 2024</t>
         </is>
       </c>
     </row>
@@ -1160,50 +995,64 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.7701388888888889</v>
+        <v>0.7126193491685996</v>
       </c>
       <c r="D7" t="n">
-        <v>0.879782006611275</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>HRV_Heart_rate1</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>HRV_Heart_rate2</t>
-        </is>
+        <v>0.8480494107652778</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.03445960894536348</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.01055464185160974</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
+          <t>HRV_Heart_rate</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
           <t>HRV_MeanNN</t>
         </is>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>HRV_SDNN</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
         <v>700</v>
       </c>
-      <c r="I7" t="b">
+      <c r="K7" t="b">
         <v>1</v>
       </c>
-      <c r="J7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" t="b">
-        <v>0</v>
-      </c>
       <c r="L7" t="b">
         <v>0</v>
       </c>
       <c r="M7" t="b">
         <v>0</v>
       </c>
-      <c r="N7" t="n">
-        <v>70</v>
-      </c>
-      <c r="O7" t="inlineStr">
+      <c r="N7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="inlineStr">
         <is>
           <t>WESAD</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>Fri Jun  7 11:21:49 2024</t>
         </is>
       </c>
     </row>
@@ -1217,50 +1066,64 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.7690636200716845</v>
+        <v>0.7500623470833202</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7470085470085471</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>HRV_Heart_rate1</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>HRV_Heart_rate2</t>
-        </is>
+        <v>0.7601154777070802</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.01415153585075247</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.02357356986213391</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
+          <t>HRV_Heart_rate</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>HRV_MeanNN</t>
         </is>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>HRV_SDNN</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
         <v>700</v>
       </c>
-      <c r="I8" t="b">
+      <c r="K8" t="b">
         <v>1</v>
       </c>
-      <c r="J8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" t="b">
-        <v>0</v>
-      </c>
       <c r="L8" t="b">
         <v>0</v>
       </c>
       <c r="M8" t="b">
         <v>0</v>
       </c>
-      <c r="N8" t="n">
-        <v>70</v>
-      </c>
-      <c r="O8" t="inlineStr">
+      <c r="N8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="inlineStr">
         <is>
           <t>WESAD</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>Fri Jun  7 11:21:49 2024</t>
         </is>
       </c>
     </row>
@@ -1274,38 +1137,52 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.7689652671104285</v>
+        <v>0.7260404831711028</v>
       </c>
       <c r="D9" t="n">
-        <v>0.841064355698502</v>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+        <v>0.8346310273477638</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.02933382858824818</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.01122230351896935</v>
+      </c>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="n">
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
         <v>700</v>
       </c>
-      <c r="I9" t="b">
+      <c r="K9" t="b">
         <v>1</v>
       </c>
-      <c r="J9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K9" t="b">
-        <v>0</v>
-      </c>
       <c r="L9" t="b">
         <v>0</v>
       </c>
       <c r="M9" t="b">
         <v>0</v>
       </c>
-      <c r="N9" t="n">
-        <v>70</v>
-      </c>
-      <c r="O9" t="inlineStr">
+      <c r="N9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>WESAD</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>Fri Jun  7 11:21:49 2024</t>
         </is>
       </c>
     </row>
